--- a/Consultant_Active_Reports/Active_Candidates_Lilly_Tyler.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Lilly_Tyler.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45985</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="6">
@@ -653,44 +653,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mads Berli</t>
+          <t>Zemir  Sadikovic</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45985</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>814</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Laurel</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Enterprise Account Executive Nordics</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Zemir  Sadikovic</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>45985</v>
+        <v>45992</v>
       </c>
     </row>
   </sheetData>

--- a/Consultant_Active_Reports/Active_Candidates_Lilly_Tyler.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Lilly_Tyler.xlsx
@@ -513,16 +513,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>John Pappas</t>
+          <t>Alex M.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Katie Kupferschmid</t>
+          <t>John Pappas</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45992</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +597,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRATAP JADHAV</t>
+          <t>Katie Kupferschmid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45981</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Alex M.</t>
+          <t>PRATAP JADHAV</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">

--- a/Consultant_Active_Reports/Active_Candidates_Lilly_Tyler.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Lilly_Tyler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -780,6 +780,31 @@
         </is>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>867</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CyCognito</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CSM UK</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Gary M.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
